--- a/src/HaoHaoPlay.ApiHost/wwwroot/template/user.xlsx
+++ b/src/HaoHaoPlay.ApiHost/wwwroot/template/user.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\my\haohaoplay\src\haohaoPlay.Web.Host\wwwroot\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MyDev\HaoHaoPlay\src\HaoHaoPlay.ApiHost\wwwroot\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{765B8023-B92B-43D5-95B0-A761A841BA21}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDDB3BCC-E1DF-4F5D-8B13-4836198A972D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3555" yWindow="1260" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5310" yWindow="1935" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>姓名</t>
   </si>
@@ -38,15 +38,6 @@
   </si>
   <si>
     <t>微信</t>
-  </si>
-  <si>
-    <t>状态</t>
-  </si>
-  <si>
-    <t>最后登录时间</t>
-  </si>
-  <si>
-    <t>最后登录地点</t>
   </si>
 </sst>
 </file>
@@ -423,7 +414,7 @@
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -447,15 +438,9 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
